--- a/data/hotels_by_city/Dallas/Dallas_shard_704.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_704.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,172 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r568732441-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>56763</t>
+  </si>
+  <si>
+    <t>12483278</t>
+  </si>
+  <si>
+    <t>568732441</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Rude</t>
+  </si>
+  <si>
+    <t>Nice room. Rude staff. Horrible management made for a terrible experience. General Manager attacks gust with false accusations before engaging in a conversation. Staff entered room with “Do NOT disturb” sign on the door.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Wendy B, Manager at Staybridge Suites Plano - The Colony, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Nice room. Rude staff. Horrible management made for a terrible experience. General Manager attacks gust with false accusations before engaging in a conversation. Staff entered room with “Do NOT disturb” sign on the door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r568340620-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>568340620</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Never ever stay at this hotel</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was by far the worst hotel experience I have ever had. My house flooded so my insurance company set me up at this property. The facility itself was nice but the staff and particularly the GM who’s name is Viren were horrible. Because of our situation we had dogs with us in our room and were required to pay a non refundable $150 per dog per day. Okay fine. One night I took the dogs out at about 11:00 pm. We were on the first floor and right by the side door entrance. I checked the hallway and when I saw that nobody was in the hall I took the dogs out without using a leash although I had the leash in my hand. I did not come into contact with any guests or staff. 
+The next morning early and with the do not disturb sign on the door I was woken up by the GM and I  believe 3 other employees. He was very rude and said that he needed to talk to me about the pet policy. I got dressed and went to the lobby to discuss. He then told me that he knocked on the door because the hotel has a policy to inspect the rooms every 3 days. The problem is that the room was cleaned and inspected at my request the day before. He threatened to make me remove the...My stay at this hotel was by far the worst hotel experience I have ever had. My house flooded so my insurance company set me up at this property. The facility itself was nice but the staff and particularly the GM who’s name is Viren were horrible. Because of our situation we had dogs with us in our room and were required to pay a non refundable $150 per dog per day. Okay fine. One night I took the dogs out at about 11:00 pm. We were on the first floor and right by the side door entrance. I checked the hallway and when I saw that nobody was in the hall I took the dogs out without using a leash although I had the leash in my hand. I did not come into contact with any guests or staff. The next morning early and with the do not disturb sign on the door I was woken up by the GM and I  believe 3 other employees. He was very rude and said that he needed to talk to me about the pet policy. I got dressed and went to the lobby to discuss. He then told me that he knocked on the door because the hotel has a policy to inspect the rooms every 3 days. The problem is that the room was cleaned and inspected at my request the day before. He threatened to make me remove the dogs and even threatened to make us leave the hotel. Because of this we changed hotels the next day. Here is where it goes from bad to worse. Upon check out I asked that he inspect the room with me present. By the way there was no damage at all. I told him that I was leaving because of the way he treated me the day before. He said he didn’t care. Then he said that he needed to check the room because I could be another Vegas shooter or there could be a dead body in the room. At this point I just wanted to leave and I told him I was going to write a review. He then told me that he would sue me for libel and defamation if I did. He was rude, threatening, unprofessional, and arrogant. In fairness by letter of the law I should have leashed my dogs but this was not the way to deal with a guest. Please do not reward this man with your businessMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Wendy B, Manager at Staybridge Suites Plano - The Colony, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was by far the worst hotel experience I have ever had. My house flooded so my insurance company set me up at this property. The facility itself was nice but the staff and particularly the GM who’s name is Viren were horrible. Because of our situation we had dogs with us in our room and were required to pay a non refundable $150 per dog per day. Okay fine. One night I took the dogs out at about 11:00 pm. We were on the first floor and right by the side door entrance. I checked the hallway and when I saw that nobody was in the hall I took the dogs out without using a leash although I had the leash in my hand. I did not come into contact with any guests or staff. 
+The next morning early and with the do not disturb sign on the door I was woken up by the GM and I  believe 3 other employees. He was very rude and said that he needed to talk to me about the pet policy. I got dressed and went to the lobby to discuss. He then told me that he knocked on the door because the hotel has a policy to inspect the rooms every 3 days. The problem is that the room was cleaned and inspected at my request the day before. He threatened to make me remove the...My stay at this hotel was by far the worst hotel experience I have ever had. My house flooded so my insurance company set me up at this property. The facility itself was nice but the staff and particularly the GM who’s name is Viren were horrible. Because of our situation we had dogs with us in our room and were required to pay a non refundable $150 per dog per day. Okay fine. One night I took the dogs out at about 11:00 pm. We were on the first floor and right by the side door entrance. I checked the hallway and when I saw that nobody was in the hall I took the dogs out without using a leash although I had the leash in my hand. I did not come into contact with any guests or staff. The next morning early and with the do not disturb sign on the door I was woken up by the GM and I  believe 3 other employees. He was very rude and said that he needed to talk to me about the pet policy. I got dressed and went to the lobby to discuss. He then told me that he knocked on the door because the hotel has a policy to inspect the rooms every 3 days. The problem is that the room was cleaned and inspected at my request the day before. He threatened to make me remove the dogs and even threatened to make us leave the hotel. Because of this we changed hotels the next day. Here is where it goes from bad to worse. Upon check out I asked that he inspect the room with me present. By the way there was no damage at all. I told him that I was leaving because of the way he treated me the day before. He said he didn’t care. Then he said that he needed to check the room because I could be another Vegas shooter or there could be a dead body in the room. At this point I just wanted to leave and I told him I was going to write a review. He then told me that he would sue me for libel and defamation if I did. He was rude, threatening, unprofessional, and arrogant. In fairness by letter of the law I should have leashed my dogs but this was not the way to deal with a guest. Please do not reward this man with your businessMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r549331051-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>549331051</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Affordable suite near sports fields, food</t>
+  </si>
+  <si>
+    <t>Three of us enjoyed this nice, one bedroom suite with a kitchenette for two days of a lacrosse tournament.  It gave us extra privacy for our three generations.  We especially enjoyed bringing in food for dinner in the living area after a tiring day of play. We watched a football game together. Hotel staff was very nice. Room was spacious and nicely designed. We were near the elevator, but did not hear it. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Wendy B, General Manager at Staybridge Suites Plano - The Colony, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Three of us enjoyed this nice, one bedroom suite with a kitchenette for two days of a lacrosse tournament.  It gave us extra privacy for our three generations.  We especially enjoyed bringing in food for dinner in the living area after a tiring day of play. We watched a football game together. Hotel staff was very nice. Room was spacious and nicely designed. We were near the elevator, but did not hear it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r532437897-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>532437897</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>HOME AWAY FROM HOME !</t>
+  </si>
+  <si>
+    <t>extremely nice hotel, very clean, spacious rooms. the manager Robert is very helpful and friendly!  Excellent breakfast, thank you to Ruth and Macarena!  If I'm ever in that area again I will definitely love to stay again!  Home away from Home !MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Staybridge Suites Plano - The Colony, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>extremely nice hotel, very clean, spacious rooms. the manager Robert is very helpful and friendly!  Excellent breakfast, thank you to Ruth and Macarena!  If I'm ever in that area again I will definitely love to stay again!  Home away from Home !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r530384079-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>530384079</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Gave one star because there is no negative options</t>
+  </si>
+  <si>
+    <t>This is clearly a new location (construction equipment in the parking lot and a lot of hammering and sawing could be heard). Upon arriving we informed the lady at the front that we had a dog with us. When we arrived to our room there was a "pet in 
+suite" sign in our door. However, we soon found out that we were put into a room that the toilet didn't work. The lady at the front desk was very apologetic and moved us to another room. That evening we went down to the social. We were the only people there. The lady working the social was very hospitable and served me wine since she didn't have it out and set up. A few drinks into my glass of wine I cut my lip on the glass. When I inspected the glass I realized it was missing the rim of the glass and that I was drinking out of a broken glass. I let the lady know and declined any more wine for obvious reasons. The next day my family and I went down for breakfast and then back up to the room to rest. However we were unable to nap due to the construction work going on nearby our room. Around noon we decided to get dressed and go grab lunch nearby. We were gone at most an hour. When we returned back to the hotel the manager (Robert) approached...This is clearly a new location (construction equipment in the parking lot and a lot of hammering and sawing could be heard). Upon arriving we informed the lady at the front that we had a dog with us. When we arrived to our room there was a "pet in suite" sign in our door. However, we soon found out that we were put into a room that the toilet didn't work. The lady at the front desk was very apologetic and moved us to another room. That evening we went down to the social. We were the only people there. The lady working the social was very hospitable and served me wine since she didn't have it out and set up. A few drinks into my glass of wine I cut my lip on the glass. When I inspected the glass I realized it was missing the rim of the glass and that I was drinking out of a broken glass. I let the lady know and declined any more wine for obvious reasons. The next day my family and I went down for breakfast and then back up to the room to rest. However we were unable to nap due to the construction work going on nearby our room. Around noon we decided to get dressed and go grab lunch nearby. We were gone at most an hour. When we returned back to the hotel the manager (Robert) approached me and told me that I had tried to decide him by sneaking my dog into the hotel. I informed him that we paid the $75 and let the receptionist know when we checked in. He then told me we needed to get our things and leave. I have a 15 week old baby and a 4 year old so you can imagine my distress at finding out we were being kicked out of our hotel 600 miles from our home. I have never in my life felt such ridicule. I am not sure if he was discriminating against us because we are a lesbian couple or what exactly happened. We don't know why else he would have treated us this way. There were several situations that happened to us during our stay here, but at no point did we complain more than just letting the receptionist know. I am completely outraged.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is clearly a new location (construction equipment in the parking lot and a lot of hammering and sawing could be heard). Upon arriving we informed the lady at the front that we had a dog with us. When we arrived to our room there was a "pet in 
+suite" sign in our door. However, we soon found out that we were put into a room that the toilet didn't work. The lady at the front desk was very apologetic and moved us to another room. That evening we went down to the social. We were the only people there. The lady working the social was very hospitable and served me wine since she didn't have it out and set up. A few drinks into my glass of wine I cut my lip on the glass. When I inspected the glass I realized it was missing the rim of the glass and that I was drinking out of a broken glass. I let the lady know and declined any more wine for obvious reasons. The next day my family and I went down for breakfast and then back up to the room to rest. However we were unable to nap due to the construction work going on nearby our room. Around noon we decided to get dressed and go grab lunch nearby. We were gone at most an hour. When we returned back to the hotel the manager (Robert) approached...This is clearly a new location (construction equipment in the parking lot and a lot of hammering and sawing could be heard). Upon arriving we informed the lady at the front that we had a dog with us. When we arrived to our room there was a "pet in suite" sign in our door. However, we soon found out that we were put into a room that the toilet didn't work. The lady at the front desk was very apologetic and moved us to another room. That evening we went down to the social. We were the only people there. The lady working the social was very hospitable and served me wine since she didn't have it out and set up. A few drinks into my glass of wine I cut my lip on the glass. When I inspected the glass I realized it was missing the rim of the glass and that I was drinking out of a broken glass. I let the lady know and declined any more wine for obvious reasons. The next day my family and I went down for breakfast and then back up to the room to rest. However we were unable to nap due to the construction work going on nearby our room. Around noon we decided to get dressed and go grab lunch nearby. We were gone at most an hour. When we returned back to the hotel the manager (Robert) approached me and told me that I had tried to decide him by sneaking my dog into the hotel. I informed him that we paid the $75 and let the receptionist know when we checked in. He then told me we needed to get our things and leave. I have a 15 week old baby and a 4 year old so you can imagine my distress at finding out we were being kicked out of our hotel 600 miles from our home. I have never in my life felt such ridicule. I am not sure if he was discriminating against us because we are a lesbian couple or what exactly happened. We don't know why else he would have treated us this way. There were several situations that happened to us during our stay here, but at no point did we complain more than just letting the receptionist know. I am completely outraged.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r529551388-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>529551388</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel! Tons of amenities!</t>
+  </si>
+  <si>
+    <t>Stayed here last night and the hotel is wonderful. Front desk said the hotel is brand new, the rooms are very spacious and the backyard is definitely something I've never seen before. BBQ grills, pergola, pool and basketball court. It's a great hotel to unwind after a long day. Thanks Robert and staff, I'll definitely be coming back when I'm in Dallas!MoreShow less</t>
+  </si>
+  <si>
+    <t>AllSmilesRobert, Manager at Staybridge Suites Plano - The Colony, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here last night and the hotel is wonderful. Front desk said the hotel is brand new, the rooms are very spacious and the backyard is definitely something I've never seen before. BBQ grills, pergola, pool and basketball court. It's a great hotel to unwind after a long day. Thanks Robert and staff, I'll definitely be coming back when I'm in Dallas!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +811,372 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65685</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65685</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65685</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65685</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65685</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65685</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_704.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_704.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kristi D</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
   </si>
   <si>
     <t>Nice room. Rude staff. Horrible management made for a terrible experience. General Manager attacks gust with false accusations before engaging in a conversation. Staff entered room with “Do NOT disturb” sign on the door.More</t>
+  </si>
+  <si>
+    <t>Jack S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r568340620-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -215,6 +221,9 @@
 The next morning early and with the do not disturb sign on the door I was woken up by the GM and I  believe 3 other employees. He was very rude and said that he needed to talk to me about the pet policy. I got dressed and went to the lobby to discuss. He then told me that he knocked on the door because the hotel has a policy to inspect the rooms every 3 days. The problem is that the room was cleaned and inspected at my request the day before. He threatened to make me remove the...My stay at this hotel was by far the worst hotel experience I have ever had. My house flooded so my insurance company set me up at this property. The facility itself was nice but the staff and particularly the GM who’s name is Viren were horrible. Because of our situation we had dogs with us in our room and were required to pay a non refundable $150 per dog per day. Okay fine. One night I took the dogs out at about 11:00 pm. We were on the first floor and right by the side door entrance. I checked the hallway and when I saw that nobody was in the hall I took the dogs out without using a leash although I had the leash in my hand. I did not come into contact with any guests or staff. The next morning early and with the do not disturb sign on the door I was woken up by the GM and I  believe 3 other employees. He was very rude and said that he needed to talk to me about the pet policy. I got dressed and went to the lobby to discuss. He then told me that he knocked on the door because the hotel has a policy to inspect the rooms every 3 days. The problem is that the room was cleaned and inspected at my request the day before. He threatened to make me remove the dogs and even threatened to make us leave the hotel. Because of this we changed hotels the next day. Here is where it goes from bad to worse. Upon check out I asked that he inspect the room with me present. By the way there was no damage at all. I told him that I was leaving because of the way he treated me the day before. He said he didn’t care. Then he said that he needed to check the room because I could be another Vegas shooter or there could be a dead body in the room. At this point I just wanted to leave and I told him I was going to write a review. He then told me that he would sue me for libel and defamation if I did. He was rude, threatening, unprofessional, and arrogant. In fairness by letter of the law I should have leashed my dogs but this was not the way to deal with a guest. Please do not reward this man with your businessMore</t>
   </si>
   <si>
+    <t>dlblackwell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r549331051-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -242,6 +251,9 @@
     <t>Three of us enjoyed this nice, one bedroom suite with a kitchenette for two days of a lacrosse tournament.  It gave us extra privacy for our three generations.  We especially enjoyed bringing in food for dinner in the living area after a tiring day of play. We watched a football game together. Hotel staff was very nice. Room was spacious and nicely designed. We were near the elevator, but did not hear it. More</t>
   </si>
   <si>
+    <t>veliatorres2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r532437897-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
   </si>
   <si>
     <t>extremely nice hotel, very clean, spacious rooms. the manager Robert is very helpful and friendly!  Excellent breakfast, thank you to Ruth and Macarena!  If I'm ever in that area again I will definitely love to stay again!  Home away from Home !More</t>
+  </si>
+  <si>
+    <t>Christina N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r530384079-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -287,6 +302,9 @@
   <si>
     <t>This is clearly a new location (construction equipment in the parking lot and a lot of hammering and sawing could be heard). Upon arriving we informed the lady at the front that we had a dog with us. When we arrived to our room there was a "pet in 
 suite" sign in our door. However, we soon found out that we were put into a room that the toilet didn't work. The lady at the front desk was very apologetic and moved us to another room. That evening we went down to the social. We were the only people there. The lady working the social was very hospitable and served me wine since she didn't have it out and set up. A few drinks into my glass of wine I cut my lip on the glass. When I inspected the glass I realized it was missing the rim of the glass and that I was drinking out of a broken glass. I let the lady know and declined any more wine for obvious reasons. The next day my family and I went down for breakfast and then back up to the room to rest. However we were unable to nap due to the construction work going on nearby our room. Around noon we decided to get dressed and go grab lunch nearby. We were gone at most an hour. When we returned back to the hotel the manager (Robert) approached...This is clearly a new location (construction equipment in the parking lot and a lot of hammering and sawing could be heard). Upon arriving we informed the lady at the front that we had a dog with us. When we arrived to our room there was a "pet in suite" sign in our door. However, we soon found out that we were put into a room that the toilet didn't work. The lady at the front desk was very apologetic and moved us to another room. That evening we went down to the social. We were the only people there. The lady working the social was very hospitable and served me wine since she didn't have it out and set up. A few drinks into my glass of wine I cut my lip on the glass. When I inspected the glass I realized it was missing the rim of the glass and that I was drinking out of a broken glass. I let the lady know and declined any more wine for obvious reasons. The next day my family and I went down for breakfast and then back up to the room to rest. However we were unable to nap due to the construction work going on nearby our room. Around noon we decided to get dressed and go grab lunch nearby. We were gone at most an hour. When we returned back to the hotel the manager (Robert) approached me and told me that I had tried to decide him by sneaking my dog into the hotel. I informed him that we paid the $75 and let the receptionist know when we checked in. He then told me we needed to get our things and leave. I have a 15 week old baby and a 4 year old so you can imagine my distress at finding out we were being kicked out of our hotel 600 miles from our home. I have never in my life felt such ridicule. I am not sure if he was discriminating against us because we are a lesbian couple or what exactly happened. We don't know why else he would have treated us this way. There were several situations that happened to us during our stay here, but at no point did we complain more than just letting the receptionist know. I am completely outraged.More</t>
+  </si>
+  <si>
+    <t>Jason C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r529551388-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -815,43 +833,47 @@
       <c r="A2" t="n">
         <v>65685</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -863,56 +885,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65685</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>48664</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -924,56 +950,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65685</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -985,56 +1015,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65685</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1050,56 +1084,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65685</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>82999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1113,50 +1151,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65685</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>18101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1168,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_704.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_704.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,87 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Kristi D</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r592740639-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>56763</t>
+  </si>
+  <si>
+    <t>12483278</t>
+  </si>
+  <si>
+    <t>592740639</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Quick trip Dallas</t>
+  </si>
+  <si>
+    <t>We need a hotel near DFW when we were I. Dallas to pick up our son from the airport.  It was only 15 minutes to airport.  This place was great’. The hotel opened last fall so everything was very new.  Our room was large and very quite.  It was a perfect place to stay.It is also near Top Golf, sports fields, the new Nebraska  furniture store and tons of restaurants.  We would definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Guest S, Guest Relations Manager at Staybridge Suites Plano - The Colony, responded to this reviewResponded July 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2018</t>
+  </si>
+  <si>
+    <t>We need a hotel near DFW when we were I. Dallas to pick up our son from the airport.  It was only 15 minutes to airport.  This place was great’. The hotel opened last fall so everything was very new.  Our room was large and very quite.  It was a perfect place to stay.It is also near Top Golf, sports fields, the new Nebraska  furniture store and tons of restaurants.  We would definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r571050942-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>571050942</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!</t>
+  </si>
+  <si>
+    <t>Stayed here for work; 16 nights; Great place for extended stay; Full Kitchen with full size refrigerator and 2 burner stove with pots, pans and silverware in room. Rooms are much larger than what i'm use to staying at with Home2 in Frisco. Large assortment at breakfast and Social Hour with beer and wine is great with delicious food. Athene at the front desk is super sweet and knowledgeable. BBQ grills in back are a nice touch! Thanks again, i'll be back in late April.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r572029177-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>572029177</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights.  Very clean, modern, and quiet.  There is a kitchenette with a full size refrig., 2 burner stove, MW, coffee maker, pots and pans, dishes, etc.  We had a king bed and there is a hide a bed sofa with a lounger attached.  Room not real big but OK.  We got fresh towels and toiletries every day and bed was made up.  The breakfast buffet is the standard egg &amp; sausage or bacon serving with oatmeal, waffles, fruit, &amp; muffins or bread product.  What was really nice is the dinner appetizers offered Mon. - Wed. and beer and wine.  Sure helped the budget having some food available.  They have a great workout room, pool area and bar b que.  My husband loves to stay here because of close proximity to Hwy. 121.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights.  Very clean, modern, and quiet.  There is a kitchenette with a full size refrig., 2 burner stove, MW, coffee maker, pots and pans, dishes, etc.  We had a king bed and there is a hide a bed sofa with a lounger attached.  Room not real big but OK.  We got fresh towels and toiletries every day and bed was made up.  The breakfast buffet is the standard egg &amp; sausage or bacon serving with oatmeal, waffles, fruit, &amp; muffins or bread product.  What was really nice is the dinner appetizers offered Mon. - Wed. and beer and wine.  Sure helped the budget having some food available.  They have a great workout room, pool area and bar b que.  My husband loves to stay here because of close proximity to Hwy. 121.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r568732441-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
-    <t>56763</t>
-  </si>
-  <si>
-    <t>12483278</t>
-  </si>
-  <si>
     <t>568732441</t>
   </si>
   <si>
@@ -177,9 +243,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Wendy B, Manager at Staybridge Suites Plano - The Colony, responded to this reviewResponded March 30, 2018</t>
   </si>
   <si>
@@ -189,39 +252,13 @@
     <t>Nice room. Rude staff. Horrible management made for a terrible experience. General Manager attacks gust with false accusations before engaging in a conversation. Staff entered room with “Do NOT disturb” sign on the door.More</t>
   </si>
   <si>
-    <t>Jack S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r568340620-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
     <t>568340620</t>
   </si>
   <si>
-    <t>03/23/2018</t>
-  </si>
-  <si>
-    <t>Never ever stay at this hotel</t>
-  </si>
-  <si>
-    <t>My stay at this hotel was by far the worst hotel experience I have ever had. My house flooded so my insurance company set me up at this property. The facility itself was nice but the staff and particularly the GM who’s name is Viren were horrible. Because of our situation we had dogs with us in our room and were required to pay a non refundable $150 per dog per day. Okay fine. One night I took the dogs out at about 11:00 pm. We were on the first floor and right by the side door entrance. I checked the hallway and when I saw that nobody was in the hall I took the dogs out without using a leash although I had the leash in my hand. I did not come into contact with any guests or staff. 
-The next morning early and with the do not disturb sign on the door I was woken up by the GM and I  believe 3 other employees. He was very rude and said that he needed to talk to me about the pet policy. I got dressed and went to the lobby to discuss. He then told me that he knocked on the door because the hotel has a policy to inspect the rooms every 3 days. The problem is that the room was cleaned and inspected at my request the day before. He threatened to make me remove the...My stay at this hotel was by far the worst hotel experience I have ever had. My house flooded so my insurance company set me up at this property. The facility itself was nice but the staff and particularly the GM who’s name is Viren were horrible. Because of our situation we had dogs with us in our room and were required to pay a non refundable $150 per dog per day. Okay fine. One night I took the dogs out at about 11:00 pm. We were on the first floor and right by the side door entrance. I checked the hallway and when I saw that nobody was in the hall I took the dogs out without using a leash although I had the leash in my hand. I did not come into contact with any guests or staff. The next morning early and with the do not disturb sign on the door I was woken up by the GM and I  believe 3 other employees. He was very rude and said that he needed to talk to me about the pet policy. I got dressed and went to the lobby to discuss. He then told me that he knocked on the door because the hotel has a policy to inspect the rooms every 3 days. The problem is that the room was cleaned and inspected at my request the day before. He threatened to make me remove the dogs and even threatened to make us leave the hotel. Because of this we changed hotels the next day. Here is where it goes from bad to worse. Upon check out I asked that he inspect the room with me present. By the way there was no damage at all. I told him that I was leaving because of the way he treated me the day before. He said he didn’t care. Then he said that he needed to check the room because I could be another Vegas shooter or there could be a dead body in the room. At this point I just wanted to leave and I told him I was going to write a review. He then told me that he would sue me for libel and defamation if I did. He was rude, threatening, unprofessional, and arrogant. In fairness by letter of the law I should have leashed my dogs but this was not the way to deal with a guest. Please do not reward this man with your businessMoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Wendy B, Manager at Staybridge Suites Plano - The Colony, responded to this reviewResponded March 26, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 26, 2018</t>
-  </si>
-  <si>
-    <t>My stay at this hotel was by far the worst hotel experience I have ever had. My house flooded so my insurance company set me up at this property. The facility itself was nice but the staff and particularly the GM who’s name is Viren were horrible. Because of our situation we had dogs with us in our room and were required to pay a non refundable $150 per dog per day. Okay fine. One night I took the dogs out at about 11:00 pm. We were on the first floor and right by the side door entrance. I checked the hallway and when I saw that nobody was in the hall I took the dogs out without using a leash although I had the leash in my hand. I did not come into contact with any guests or staff. 
-The next morning early and with the do not disturb sign on the door I was woken up by the GM and I  believe 3 other employees. He was very rude and said that he needed to talk to me about the pet policy. I got dressed and went to the lobby to discuss. He then told me that he knocked on the door because the hotel has a policy to inspect the rooms every 3 days. The problem is that the room was cleaned and inspected at my request the day before. He threatened to make me remove the...My stay at this hotel was by far the worst hotel experience I have ever had. My house flooded so my insurance company set me up at this property. The facility itself was nice but the staff and particularly the GM who’s name is Viren were horrible. Because of our situation we had dogs with us in our room and were required to pay a non refundable $150 per dog per day. Okay fine. One night I took the dogs out at about 11:00 pm. We were on the first floor and right by the side door entrance. I checked the hallway and when I saw that nobody was in the hall I took the dogs out without using a leash although I had the leash in my hand. I did not come into contact with any guests or staff. The next morning early and with the do not disturb sign on the door I was woken up by the GM and I  believe 3 other employees. He was very rude and said that he needed to talk to me about the pet policy. I got dressed and went to the lobby to discuss. He then told me that he knocked on the door because the hotel has a policy to inspect the rooms every 3 days. The problem is that the room was cleaned and inspected at my request the day before. He threatened to make me remove the dogs and even threatened to make us leave the hotel. Because of this we changed hotels the next day. Here is where it goes from bad to worse. Upon check out I asked that he inspect the room with me present. By the way there was no damage at all. I told him that I was leaving because of the way he treated me the day before. He said he didn’t care. Then he said that he needed to check the room because I could be another Vegas shooter or there could be a dead body in the room. At this point I just wanted to leave and I told him I was going to write a review. He then told me that he would sue me for libel and defamation if I did. He was rude, threatening, unprofessional, and arrogant. In fairness by letter of the law I should have leashed my dogs but this was not the way to deal with a guest. Please do not reward this man with your businessMore</t>
-  </si>
-  <si>
-    <t>dlblackwell</t>
+    <t>March 23, 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r549331051-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -251,7 +288,49 @@
     <t>Three of us enjoyed this nice, one bedroom suite with a kitchenette for two days of a lacrosse tournament.  It gave us extra privacy for our three generations.  We especially enjoyed bringing in food for dinner in the living area after a tiring day of play. We watched a football game together. Hotel staff was very nice. Room was spacious and nicely designed. We were near the elevator, but did not hear it. More</t>
   </si>
   <si>
-    <t>veliatorres2012</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r543037376-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>543037376</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Thanksgiving 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This property is new. It's a quality brand for IHG. If you're looking for a down home feel then this is for you. Rooms come with a great kitchen and seating area. If you're looking for a place to plug-in and work then this is for you. Breakfast is the best. Plenty of room to streach out, watch TV and relax. Highly recommended. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r533692735-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>533692735</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Great Value - Large Spacious Rooms</t>
+  </si>
+  <si>
+    <t>I booked this room based on price and location and was amazed by the size of the room.  It has space for a sectional couch, desk and king bed with a full kitchen!  It didn't feel cramped either.  I asked the staff about my room and she said all of the rooms were large.  Wow!  I don't travel much but will try and come back here the next time I'm in North Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Staybridge Suites Plano - The Colony, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>I booked this room based on price and location and was amazed by the size of the room.  It has space for a sectional couch, desk and king bed with a full kitchen!  It didn't feel cramped either.  I asked the staff about my room and she said all of the rooms were large.  Wow!  I don't travel much but will try and come back here the next time I'm in North Dallas.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r532437897-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -269,9 +348,6 @@
     <t>extremely nice hotel, very clean, spacious rooms. the manager Robert is very helpful and friendly!  Excellent breakfast, thank you to Ruth and Macarena!  If I'm ever in that area again I will definitely love to stay again!  Home away from Home !MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>Robert M, Manager at Staybridge Suites Plano - The Colony, responded to this reviewResponded October 13, 2017</t>
   </si>
   <si>
@@ -279,9 +355,6 @@
   </si>
   <si>
     <t>extremely nice hotel, very clean, spacious rooms. the manager Robert is very helpful and friendly!  Excellent breakfast, thank you to Ruth and Macarena!  If I'm ever in that area again I will definitely love to stay again!  Home away from Home !More</t>
-  </si>
-  <si>
-    <t>Christina N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r530384079-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -302,9 +375,6 @@
   <si>
     <t>This is clearly a new location (construction equipment in the parking lot and a lot of hammering and sawing could be heard). Upon arriving we informed the lady at the front that we had a dog with us. When we arrived to our room there was a "pet in 
 suite" sign in our door. However, we soon found out that we were put into a room that the toilet didn't work. The lady at the front desk was very apologetic and moved us to another room. That evening we went down to the social. We were the only people there. The lady working the social was very hospitable and served me wine since she didn't have it out and set up. A few drinks into my glass of wine I cut my lip on the glass. When I inspected the glass I realized it was missing the rim of the glass and that I was drinking out of a broken glass. I let the lady know and declined any more wine for obvious reasons. The next day my family and I went down for breakfast and then back up to the room to rest. However we were unable to nap due to the construction work going on nearby our room. Around noon we decided to get dressed and go grab lunch nearby. We were gone at most an hour. When we returned back to the hotel the manager (Robert) approached...This is clearly a new location (construction equipment in the parking lot and a lot of hammering and sawing could be heard). Upon arriving we informed the lady at the front that we had a dog with us. When we arrived to our room there was a "pet in suite" sign in our door. However, we soon found out that we were put into a room that the toilet didn't work. The lady at the front desk was very apologetic and moved us to another room. That evening we went down to the social. We were the only people there. The lady working the social was very hospitable and served me wine since she didn't have it out and set up. A few drinks into my glass of wine I cut my lip on the glass. When I inspected the glass I realized it was missing the rim of the glass and that I was drinking out of a broken glass. I let the lady know and declined any more wine for obvious reasons. The next day my family and I went down for breakfast and then back up to the room to rest. However we were unable to nap due to the construction work going on nearby our room. Around noon we decided to get dressed and go grab lunch nearby. We were gone at most an hour. When we returned back to the hotel the manager (Robert) approached me and told me that I had tried to decide him by sneaking my dog into the hotel. I informed him that we paid the $75 and let the receptionist know when we checked in. He then told me we needed to get our things and leave. I have a 15 week old baby and a 4 year old so you can imagine my distress at finding out we were being kicked out of our hotel 600 miles from our home. I have never in my life felt such ridicule. I am not sure if he was discriminating against us because we are a lesbian couple or what exactly happened. We don't know why else he would have treated us this way. There were several situations that happened to us during our stay here, but at no point did we complain more than just letting the receptionist know. I am completely outraged.More</t>
-  </si>
-  <si>
-    <t>Jason C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12483278-r529551388-Staybridge_Suites_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -833,47 +903,43 @@
       <c r="A2" t="n">
         <v>65685</v>
       </c>
-      <c r="B2" t="n">
-        <v>178193</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -885,60 +951,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65685</v>
       </c>
-      <c r="B3" t="n">
-        <v>48664</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -949,196 +1011,168 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65685</v>
       </c>
-      <c r="B4" t="n">
-        <v>178194</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" t="s">
-        <v>75</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65685</v>
       </c>
-      <c r="B5" t="n">
-        <v>178195</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65685</v>
       </c>
-      <c r="B6" t="n">
-        <v>82999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -1150,55 +1184,49 @@
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
-      <c r="Y6" t="s">
-        <v>93</v>
-      </c>
+      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65685</v>
       </c>
-      <c r="B7" t="n">
-        <v>18101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1210,13 +1238,318 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65685</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65685</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>100</v>
       </c>
-      <c r="X7" t="s">
+      <c r="O9" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
         <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65685</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65685</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65685</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
